--- a/data/military.xlsx
+++ b/data/military.xlsx
@@ -23,13 +23,13 @@
     <t>Creating date</t>
   </si>
   <si>
-    <t>20170000000224</t>
+    <t>20170000000226</t>
   </si>
   <si>
-    <t>148708</t>
+    <t>56591</t>
   </si>
   <si>
-    <t>11.01.2015</t>
+    <t>01.07.2016</t>
   </si>
 </sst>
 </file>
